--- a/images/Book1.xlsx
+++ b/images/Book1.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abolf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abolf\Desktop\UiS\IV\DAT550\project\tensorflow_keras_LSTM\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38A0DC0-77D5-43CA-9514-C521F429BD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCF82FB-5A5C-4B51-A0F3-D3C6F111AE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{98DA4771-FC02-425F-BEFC-9AA2CB213EC6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{98DA4771-FC02-425F-BEFC-9AA2CB213EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
     <sheet name="E1" sheetId="3" r:id="rId2"/>
-    <sheet name="M" sheetId="4" r:id="rId3"/>
-    <sheet name="E2" sheetId="5" r:id="rId4"/>
-    <sheet name="report E1" sheetId="2" r:id="rId5"/>
-    <sheet name="report E2" sheetId="6" r:id="rId6"/>
+    <sheet name="F1" sheetId="7" r:id="rId3"/>
+    <sheet name="M" sheetId="4" r:id="rId4"/>
+    <sheet name="E2" sheetId="5" r:id="rId5"/>
+    <sheet name="report E1" sheetId="2" r:id="rId6"/>
+    <sheet name="report E2" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,9 +98,6 @@
     <t>Random Forest</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Logistic R</t>
   </si>
   <si>
@@ -122,6 +120,9 @@
   </si>
   <si>
     <t>F1 score</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -430,16 +431,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.34139999999999998</c:v>
+                  <c:v>0.65400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33510000000000001</c:v>
+                  <c:v>0.65400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33489999999999998</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33479999999999999</c:v>
+                  <c:v>0.65100000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -558,16 +559,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.67710000000000004</c:v>
+                  <c:v>0.69199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68540000000000001</c:v>
+                  <c:v>0.70799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66920000000000002</c:v>
+                  <c:v>0.66900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67379999999999995</c:v>
+                  <c:v>0.68500000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,16 +687,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.66120000000000001</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66059999999999997</c:v>
+                  <c:v>0.67900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66100000000000003</c:v>
+                  <c:v>0.67800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65369999999999995</c:v>
+                  <c:v>0.67400000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2732,7 +2733,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{16C44461-C521-4BAD-AF3D-3393E4A8B817}" name="Table15" displayName="Table15" ref="C12:G18" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{16C44461-C521-4BAD-AF3D-3393E4A8B817}" name="Table15" displayName="Table15" ref="C12:G18" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="C12:G18" xr:uid="{16C44461-C521-4BAD-AF3D-3393E4A8B817}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2741,18 +2742,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{87F90CA7-6295-4D30-A2BF-86DF16591836}" name="Logistic R" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{3FA88FA1-CF20-44D3-A104-279D1B244A16}" name="Precision" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{304AFF54-2194-48A5-81C8-E690C1C1A997}" name="Recall" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{FDDC2982-738D-44E6-9136-4DC6FC824C4B}" name="F1-score" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{322C0405-9B87-4F30-8955-D98C48094FB7}" name="Support" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{87F90CA7-6295-4D30-A2BF-86DF16591836}" name="Logistic R" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{3FA88FA1-CF20-44D3-A104-279D1B244A16}" name="Precision" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{304AFF54-2194-48A5-81C8-E690C1C1A997}" name="Recall" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{FDDC2982-738D-44E6-9136-4DC6FC824C4B}" name="F1-score" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{322C0405-9B87-4F30-8955-D98C48094FB7}" name="Support" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DDD7D25C-8B69-49DF-9F4B-0777EA94683A}" name="Table1" displayName="Table1" ref="D17:H23" totalsRowShown="0" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DDD7D25C-8B69-49DF-9F4B-0777EA94683A}" name="Table1" displayName="Table1" ref="D17:H23" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="D17:H23" xr:uid="{DDD7D25C-8B69-49DF-9F4B-0777EA94683A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2761,11 +2762,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AB2AC5DB-BF23-4244-9C95-032F30183B2C}" name="Ensemle 1" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{18CE1F91-5A35-4689-B4FC-F51E54147D77}" name="Precision" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{A81090D2-0818-44C4-A8F1-D42BCC30BD62}" name="Recall" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{1C0377D2-4ECB-4987-888D-E86AC0B455E6}" name="F1-score" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{49CBCE84-B98A-4A44-8A0A-9D850AC24D6C}" name="Support" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{AB2AC5DB-BF23-4244-9C95-032F30183B2C}" name="Ensemle 1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{18CE1F91-5A35-4689-B4FC-F51E54147D77}" name="Precision" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{A81090D2-0818-44C4-A8F1-D42BCC30BD62}" name="Recall" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{1C0377D2-4ECB-4987-888D-E86AC0B455E6}" name="F1-score" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{49CBCE84-B98A-4A44-8A0A-9D850AC24D6C}" name="Support" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3218,7 +3219,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3237,8 +3238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D79BEE5-1256-4E1E-AAA7-CB50E484A1AF}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3268,13 +3269,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.34139999999999998</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="C2">
-        <v>0.67710000000000004</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="D2">
-        <v>0.66120000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -3282,13 +3283,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.33510000000000001</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="C3">
-        <v>0.68540000000000001</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="D3">
-        <v>0.66059999999999997</v>
+        <v>0.67900000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3296,13 +3297,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.33489999999999998</v>
+        <v>0.65</v>
       </c>
       <c r="C4">
-        <v>0.66920000000000002</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="D4">
-        <v>0.66100000000000003</v>
+        <v>0.67800000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -3310,22 +3311,43 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.33479999999999999</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="C5">
-        <v>0.67379999999999995</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="D5">
-        <v>0.65369999999999995</v>
+        <v>0.67400000000000004</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E799DD0D-90D3-4FAA-9454-B029A6846FF8}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA62874A-DE0E-4F82-A666-9EC0B3AFA0D6}">
   <dimension ref="C11:G18"/>
   <sheetViews>
@@ -3341,7 +3363,7 @@
   <sheetData>
     <row r="11" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -3350,7 +3372,7 @@
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -3475,12 +3497,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED35232A-E420-4C38-82AF-A9DB3DC2A5A7}">
   <dimension ref="C7:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="C7:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3516,7 +3538,7 @@
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>0.68540000000000001</v>
@@ -3544,7 +3566,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>0.67379999999999995</v>
@@ -3562,12 +3584,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A524157-2CC9-4B53-9FBE-052A302459DC}">
   <dimension ref="D16:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3581,7 +3603,7 @@
   <sheetData>
     <row r="16" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3714,11 +3736,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42980A06-6FA1-4780-BD84-57B806D72E72}">
   <dimension ref="D17:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -3729,7 +3751,7 @@
   <sheetData>
     <row r="17" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3738,7 +3760,7 @@
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
